--- a/public/upload/student_list_each_semester/2/D16_TH07.xlsx
+++ b/public/upload/student_list_each_semester/2/D16_TH07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\danh gia ren luyen thay hung\danh-sach-sinh-vien-cntt 2018\CNTT\import full\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thư\Năm học 2017 - 2018\ĐGRL\2017-2018\HK2\file gửi\CNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO</t>
   </si>
@@ -185,6 +185,15 @@
     <t>Bảo</t>
   </si>
   <si>
+    <t>DH51600527</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
     <t>DH51603013</t>
   </si>
   <si>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,11 +618,23 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,6 +642,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -633,13 +660,49 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -648,6 +711,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,66 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,1112 +1009,1139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="27" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="38" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="39" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="27" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="29" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="25" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="11" t="s">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="30"/>
+      <c r="E10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="B14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
         <v>5</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="B15" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>6</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="B16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>7</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="B17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="B18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="B19" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>10</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="B20" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
         <v>11</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="B21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
         <v>12</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B22" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>13</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>14</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>15</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>16</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>17</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>18</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>19</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>20</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D30" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>14</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>16</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>18</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>19</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
-        <v>20</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="23" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="C33" s="35"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="19" t="s">
+      <c r="B37" s="17"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="20" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="19" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="20" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10" t="s">
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="20" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="20" t="s">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10" t="s">
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-    </row>
-    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="I3:O3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
